--- a/DataFileSamples/Zircon Ce Calculation/ZirconCe.xlsx
+++ b/DataFileSamples/Zircon Ce Calculation/ZirconCe.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoCode/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/Zircon Ce Calculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="3960" windowWidth="25680" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="7180" yWindow="1840" windowWidth="25680" windowHeight="16420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testing" sheetId="12" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
   <si>
     <t>Tb</t>
   </si>
@@ -164,12 +165,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +219,7 @@
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -644,6 +646,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -913,11 +918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="10"/>
@@ -933,7 +938,7 @@
     <col min="23" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="6" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1134,7 @@
       </c>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -1325,7 +1330,7 @@
       </c>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
@@ -1391,7 +1396,7 @@
       </c>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="20" t="s">
         <v>38</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
@@ -1584,7 +1589,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="20" t="s">
         <v>38</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>15.37</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
@@ -1844,7 +1849,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1909,10 +1914,1010 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="18" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="22:22">
       <c r="V18" s="10" t="s">
         <v>35</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="36">
+        <v>3</v>
+      </c>
+      <c r="D2" s="37">
+        <v>3</v>
+      </c>
+      <c r="E2" s="37">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37">
+        <v>3</v>
+      </c>
+      <c r="H2" s="37">
+        <v>3</v>
+      </c>
+      <c r="I2" s="37">
+        <v>3</v>
+      </c>
+      <c r="J2" s="37">
+        <v>3</v>
+      </c>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="37">
+        <v>3</v>
+      </c>
+      <c r="M2" s="37">
+        <v>3</v>
+      </c>
+      <c r="N2" s="37">
+        <v>3</v>
+      </c>
+      <c r="O2" s="37">
+        <v>3</v>
+      </c>
+      <c r="P2" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>4</v>
+      </c>
+      <c r="R2" s="37">
+        <v>4</v>
+      </c>
+      <c r="S2" s="37">
+        <v>4</v>
+      </c>
+      <c r="T2" s="37">
+        <v>4</v>
+      </c>
+      <c r="U2" s="37">
+        <v>4</v>
+      </c>
+      <c r="V2" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" ht="18">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.143</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1.109</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1.079</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="J4" s="24">
+        <v>1.04</v>
+      </c>
+      <c r="K4" s="24">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="L4" s="24">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1.004</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.83</v>
+      </c>
+      <c r="T4" s="26">
+        <v>0.84</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0.84</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="V5" s="18">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="31">
+        <v>23.87</v>
+      </c>
+      <c r="D6" s="31">
+        <v>52.79</v>
+      </c>
+      <c r="E6" s="31">
+        <v>6.22</v>
+      </c>
+      <c r="F6" s="31">
+        <v>24.85</v>
+      </c>
+      <c r="G6" s="31">
+        <v>4.96</v>
+      </c>
+      <c r="H6" s="31">
+        <v>1.07</v>
+      </c>
+      <c r="I6" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0.63</v>
+      </c>
+      <c r="K6" s="31">
+        <v>4.04</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0.79</v>
+      </c>
+      <c r="M6" s="31">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P6" s="31">
+        <v>0.34</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>16.88</v>
+      </c>
+      <c r="R6" s="31">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S6" s="31">
+        <v>5.47</v>
+      </c>
+      <c r="T6" s="31">
+        <v>156.88</v>
+      </c>
+      <c r="U6" s="31">
+        <v>52.79</v>
+      </c>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="1:22" ht="18">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="33">
+        <v>27.99</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="33">
+        <v>3.54</v>
+      </c>
+      <c r="G7" s="33">
+        <v>6.11</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="I7" s="33">
+        <v>32.65</v>
+      </c>
+      <c r="J7" s="33">
+        <v>11.6</v>
+      </c>
+      <c r="K7" s="33">
+        <v>130.34</v>
+      </c>
+      <c r="L7" s="33">
+        <v>47.15</v>
+      </c>
+      <c r="M7" s="33">
+        <v>215.53</v>
+      </c>
+      <c r="N7" s="33">
+        <v>43.87</v>
+      </c>
+      <c r="O7" s="33">
+        <v>385.83</v>
+      </c>
+      <c r="P7" s="33">
+        <v>72.89</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>539.94000000000005</v>
+      </c>
+      <c r="R7" s="33">
+        <v>541.37</v>
+      </c>
+      <c r="S7" s="33">
+        <v>8963.76</v>
+      </c>
+      <c r="T7" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U7" s="33">
+        <v>27.99</v>
+      </c>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" spans="1:22" ht="18">
+      <c r="A8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="33">
+        <v>21.34</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.17</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2.68</v>
+      </c>
+      <c r="G8" s="33">
+        <v>5.34</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="I8" s="33">
+        <v>27.1</v>
+      </c>
+      <c r="J8" s="33">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="K8" s="33">
+        <v>107.17</v>
+      </c>
+      <c r="L8" s="33">
+        <v>38.93</v>
+      </c>
+      <c r="M8" s="33">
+        <v>174.98</v>
+      </c>
+      <c r="N8" s="33">
+        <v>35.56</v>
+      </c>
+      <c r="O8" s="33">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="P8" s="33">
+        <v>57.26</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>338.94</v>
+      </c>
+      <c r="R8" s="33">
+        <v>364.63</v>
+      </c>
+      <c r="S8" s="33">
+        <v>8080.83</v>
+      </c>
+      <c r="T8" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U8" s="33">
+        <v>21.34</v>
+      </c>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="18">
+      <c r="A9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="33">
+        <v>19.13</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="F9" s="33">
+        <v>5.95</v>
+      </c>
+      <c r="G9" s="33">
+        <v>11.9</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="I9" s="33">
+        <v>60.22</v>
+      </c>
+      <c r="J9" s="33">
+        <v>19.45</v>
+      </c>
+      <c r="K9" s="33">
+        <v>206.7</v>
+      </c>
+      <c r="L9" s="33">
+        <v>69.08</v>
+      </c>
+      <c r="M9" s="33">
+        <v>286.82</v>
+      </c>
+      <c r="N9" s="33">
+        <v>55.15</v>
+      </c>
+      <c r="O9" s="33">
+        <v>454.09</v>
+      </c>
+      <c r="P9" s="33">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>484.74</v>
+      </c>
+      <c r="R9" s="33">
+        <v>393.02</v>
+      </c>
+      <c r="S9" s="33">
+        <v>7217.99</v>
+      </c>
+      <c r="T9" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U9" s="33">
+        <v>19.13</v>
+      </c>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" ht="18">
+      <c r="A10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="33">
+        <v>25.09</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2.76</v>
+      </c>
+      <c r="G10" s="33">
+        <v>5.44</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0.51</v>
+      </c>
+      <c r="I10" s="33">
+        <v>30.58</v>
+      </c>
+      <c r="J10" s="33">
+        <v>11.48</v>
+      </c>
+      <c r="K10" s="33">
+        <v>139.43</v>
+      </c>
+      <c r="L10" s="33">
+        <v>55.29</v>
+      </c>
+      <c r="M10" s="33">
+        <v>269.67</v>
+      </c>
+      <c r="N10" s="33">
+        <v>57.73</v>
+      </c>
+      <c r="O10" s="33">
+        <v>525.45000000000005</v>
+      </c>
+      <c r="P10" s="33">
+        <v>102.78</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>398.75</v>
+      </c>
+      <c r="R10" s="33">
+        <v>602.75</v>
+      </c>
+      <c r="S10" s="33">
+        <v>8149.73</v>
+      </c>
+      <c r="T10" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U10" s="33">
+        <v>25.09</v>
+      </c>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" ht="18">
+      <c r="A11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="33">
+        <v>25.01</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="F11" s="33">
+        <v>3.31</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6.58</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I11" s="33">
+        <v>33.93</v>
+      </c>
+      <c r="J11" s="33">
+        <v>12.81</v>
+      </c>
+      <c r="K11" s="33">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="L11" s="33">
+        <v>57.66</v>
+      </c>
+      <c r="M11" s="33">
+        <v>276.5</v>
+      </c>
+      <c r="N11" s="33">
+        <v>57.8</v>
+      </c>
+      <c r="O11" s="33">
+        <v>517.1</v>
+      </c>
+      <c r="P11" s="33">
+        <v>97.44</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>588.23</v>
+      </c>
+      <c r="R11" s="33">
+        <v>626.54999999999995</v>
+      </c>
+      <c r="S11" s="33">
+        <v>7499.11</v>
+      </c>
+      <c r="T11" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U11" s="33">
+        <v>25.01</v>
+      </c>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="18">
+      <c r="A12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="33">
+        <v>15.37</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="F12" s="33">
+        <v>3.49</v>
+      </c>
+      <c r="G12" s="33">
+        <v>6.43</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="I12" s="33">
+        <v>35.67</v>
+      </c>
+      <c r="J12" s="33">
+        <v>12.37</v>
+      </c>
+      <c r="K12" s="33">
+        <v>137.31</v>
+      </c>
+      <c r="L12" s="33">
+        <v>49.03</v>
+      </c>
+      <c r="M12" s="33">
+        <v>212.55</v>
+      </c>
+      <c r="N12" s="33">
+        <v>42.43</v>
+      </c>
+      <c r="O12" s="33">
+        <v>374.05</v>
+      </c>
+      <c r="P12" s="33">
+        <v>68.88</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>281.79000000000002</v>
+      </c>
+      <c r="R12" s="33">
+        <v>323.72000000000003</v>
+      </c>
+      <c r="S12" s="33">
+        <v>8070.96</v>
+      </c>
+      <c r="T12" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U12" s="33">
+        <v>15.37</v>
+      </c>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13" spans="1:22" ht="18">
+      <c r="A13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="33">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="G13" s="33">
+        <v>3.57</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="I13" s="33">
+        <v>19.62</v>
+      </c>
+      <c r="J13" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="K13" s="33">
+        <v>87.5</v>
+      </c>
+      <c r="L13" s="33">
+        <v>33.29</v>
+      </c>
+      <c r="M13" s="33">
+        <v>155.99</v>
+      </c>
+      <c r="N13" s="33">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="O13" s="33">
+        <v>307.7</v>
+      </c>
+      <c r="P13" s="33">
+        <v>59.69</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>226.99</v>
+      </c>
+      <c r="R13" s="33">
+        <v>358.03</v>
+      </c>
+      <c r="S13" s="33">
+        <v>9970.61</v>
+      </c>
+      <c r="T13" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U13" s="33">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="18">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="33">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="F14" s="33">
+        <v>6.88</v>
+      </c>
+      <c r="G14" s="33">
+        <v>10.76</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0.83</v>
+      </c>
+      <c r="I14" s="33">
+        <v>54.03</v>
+      </c>
+      <c r="J14" s="33">
+        <v>18.89</v>
+      </c>
+      <c r="K14" s="33">
+        <v>208.57</v>
+      </c>
+      <c r="L14" s="33">
+        <v>72.44</v>
+      </c>
+      <c r="M14" s="33">
+        <v>314.06</v>
+      </c>
+      <c r="N14" s="33">
+        <v>61.52</v>
+      </c>
+      <c r="O14" s="33">
+        <v>525.02</v>
+      </c>
+      <c r="P14" s="33">
+        <v>93.69</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>455.81</v>
+      </c>
+      <c r="R14" s="33">
+        <v>433.04</v>
+      </c>
+      <c r="S14" s="33">
+        <v>9065.15</v>
+      </c>
+      <c r="T14" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U14" s="33">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="18">
+      <c r="A15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="33">
+        <v>24.96</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="F15" s="33">
+        <v>6.68</v>
+      </c>
+      <c r="G15" s="33">
+        <v>11.47</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="I15" s="33">
+        <v>50.3</v>
+      </c>
+      <c r="J15" s="33">
+        <v>17.93</v>
+      </c>
+      <c r="K15" s="33">
+        <v>201.96</v>
+      </c>
+      <c r="L15" s="33">
+        <v>73.22</v>
+      </c>
+      <c r="M15" s="33">
+        <v>327.37</v>
+      </c>
+      <c r="N15" s="33">
+        <v>64.75</v>
+      </c>
+      <c r="O15" s="33">
+        <v>560.63</v>
+      </c>
+      <c r="P15" s="33">
+        <v>102.45</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>583.66</v>
+      </c>
+      <c r="R15" s="33">
+        <v>604.38</v>
+      </c>
+      <c r="S15" s="33">
+        <v>10272.77</v>
+      </c>
+      <c r="T15" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U15" s="33">
+        <v>24.96</v>
+      </c>
+      <c r="V15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataFileSamples/Zircon Ce Calculation/ZirconCe.xlsx
+++ b/DataFileSamples/Zircon Ce Calculation/ZirconCe.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/Zircon Ce Calculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0F111DAB-6C42-1C44-9761-2FC4B81D292E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="1840" windowWidth="25680" windowHeight="16420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-21600" yWindow="460" windowWidth="21600" windowHeight="18960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="testing" sheetId="12" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="13" r:id="rId2"/>
+    <sheet name="UsedData" sheetId="13" r:id="rId1"/>
+    <sheet name="Last Version and Details" sheetId="12" r:id="rId2"/>
+    <sheet name="Original Data" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
   <si>
     <t>Tb</t>
   </si>
@@ -160,12 +162,15 @@
   <si>
     <t>Ce4</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>521-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -630,7 +635,7 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_REE配分模式" xfId="9"/>
+    <cellStyle name="常规_REE配分模式" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -915,11 +920,680 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="14" max="14" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="31">
+        <v>23.87</v>
+      </c>
+      <c r="D2" s="31">
+        <v>52.79</v>
+      </c>
+      <c r="E2" s="31">
+        <v>6.22</v>
+      </c>
+      <c r="F2" s="31">
+        <v>24.85</v>
+      </c>
+      <c r="G2" s="31">
+        <v>4.96</v>
+      </c>
+      <c r="H2" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="I2" s="31">
+        <v>0.63</v>
+      </c>
+      <c r="J2" s="31">
+        <v>4.04</v>
+      </c>
+      <c r="K2" s="31">
+        <v>0.79</v>
+      </c>
+      <c r="L2" s="31">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M2" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N2" s="31">
+        <v>0.34</v>
+      </c>
+      <c r="O2" s="31">
+        <v>16.88</v>
+      </c>
+      <c r="P2" s="31">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>5.47</v>
+      </c>
+      <c r="R2" s="31">
+        <v>156.88</v>
+      </c>
+      <c r="S2" s="31">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18">
+      <c r="A3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="33">
+        <v>27.99</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="33">
+        <v>3.54</v>
+      </c>
+      <c r="G3" s="33">
+        <v>6.11</v>
+      </c>
+      <c r="H3" s="33">
+        <v>32.65</v>
+      </c>
+      <c r="I3" s="33">
+        <v>11.6</v>
+      </c>
+      <c r="J3" s="33">
+        <v>130.34</v>
+      </c>
+      <c r="K3" s="33">
+        <v>47.15</v>
+      </c>
+      <c r="L3" s="33">
+        <v>215.53</v>
+      </c>
+      <c r="M3" s="33">
+        <v>385.83</v>
+      </c>
+      <c r="N3" s="33">
+        <v>72.89</v>
+      </c>
+      <c r="O3" s="33">
+        <v>539.94000000000005</v>
+      </c>
+      <c r="P3" s="33">
+        <v>541.37</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>8963.76</v>
+      </c>
+      <c r="R3" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S3" s="33">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18">
+      <c r="A4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="33">
+        <v>21.34</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.17</v>
+      </c>
+      <c r="F4" s="33">
+        <v>2.68</v>
+      </c>
+      <c r="G4" s="33">
+        <v>5.34</v>
+      </c>
+      <c r="H4" s="33">
+        <v>27.1</v>
+      </c>
+      <c r="I4" s="33">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="J4" s="33">
+        <v>107.17</v>
+      </c>
+      <c r="K4" s="33">
+        <v>38.93</v>
+      </c>
+      <c r="L4" s="33">
+        <v>174.98</v>
+      </c>
+      <c r="M4" s="33">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="N4" s="33">
+        <v>57.26</v>
+      </c>
+      <c r="O4" s="33">
+        <v>338.94</v>
+      </c>
+      <c r="P4" s="33">
+        <v>364.63</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>8080.83</v>
+      </c>
+      <c r="R4" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S4" s="33">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18">
+      <c r="A5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="33">
+        <v>19.13</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="F5" s="33">
+        <v>5.95</v>
+      </c>
+      <c r="G5" s="33">
+        <v>11.9</v>
+      </c>
+      <c r="H5" s="33">
+        <v>60.22</v>
+      </c>
+      <c r="I5" s="33">
+        <v>19.45</v>
+      </c>
+      <c r="J5" s="33">
+        <v>206.7</v>
+      </c>
+      <c r="K5" s="33">
+        <v>69.08</v>
+      </c>
+      <c r="L5" s="33">
+        <v>286.82</v>
+      </c>
+      <c r="M5" s="33">
+        <v>454.09</v>
+      </c>
+      <c r="N5" s="33">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="O5" s="33">
+        <v>484.74</v>
+      </c>
+      <c r="P5" s="33">
+        <v>393.02</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>7217.99</v>
+      </c>
+      <c r="R5" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S5" s="33">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18">
+      <c r="A6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="33">
+        <v>25.09</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="33">
+        <v>2.76</v>
+      </c>
+      <c r="G6" s="33">
+        <v>5.44</v>
+      </c>
+      <c r="H6" s="33">
+        <v>30.58</v>
+      </c>
+      <c r="I6" s="33">
+        <v>11.48</v>
+      </c>
+      <c r="J6" s="33">
+        <v>139.43</v>
+      </c>
+      <c r="K6" s="33">
+        <v>55.29</v>
+      </c>
+      <c r="L6" s="33">
+        <v>269.67</v>
+      </c>
+      <c r="M6" s="33">
+        <v>525.45000000000005</v>
+      </c>
+      <c r="N6" s="33">
+        <v>102.78</v>
+      </c>
+      <c r="O6" s="33">
+        <v>398.75</v>
+      </c>
+      <c r="P6" s="33">
+        <v>602.75</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>8149.73</v>
+      </c>
+      <c r="R6" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S6" s="33">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="33">
+        <v>25.01</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="F7" s="33">
+        <v>3.31</v>
+      </c>
+      <c r="G7" s="33">
+        <v>6.58</v>
+      </c>
+      <c r="H7" s="33">
+        <v>33.93</v>
+      </c>
+      <c r="I7" s="33">
+        <v>12.81</v>
+      </c>
+      <c r="J7" s="33">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="K7" s="33">
+        <v>57.66</v>
+      </c>
+      <c r="L7" s="33">
+        <v>276.5</v>
+      </c>
+      <c r="M7" s="33">
+        <v>517.1</v>
+      </c>
+      <c r="N7" s="33">
+        <v>97.44</v>
+      </c>
+      <c r="O7" s="33">
+        <v>588.23</v>
+      </c>
+      <c r="P7" s="33">
+        <v>626.54999999999995</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>7499.11</v>
+      </c>
+      <c r="R7" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S7" s="33">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18">
+      <c r="A8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="33">
+        <v>15.37</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="33">
+        <v>3.49</v>
+      </c>
+      <c r="G8" s="33">
+        <v>6.43</v>
+      </c>
+      <c r="H8" s="33">
+        <v>35.67</v>
+      </c>
+      <c r="I8" s="33">
+        <v>12.37</v>
+      </c>
+      <c r="J8" s="33">
+        <v>137.31</v>
+      </c>
+      <c r="K8" s="33">
+        <v>49.03</v>
+      </c>
+      <c r="L8" s="33">
+        <v>212.55</v>
+      </c>
+      <c r="M8" s="33">
+        <v>374.05</v>
+      </c>
+      <c r="N8" s="33">
+        <v>68.88</v>
+      </c>
+      <c r="O8" s="33">
+        <v>281.79000000000002</v>
+      </c>
+      <c r="P8" s="33">
+        <v>323.72000000000003</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>8070.96</v>
+      </c>
+      <c r="R8" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S8" s="33">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18">
+      <c r="A9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="D9" s="33">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="G9" s="33">
+        <v>3.57</v>
+      </c>
+      <c r="H9" s="33">
+        <v>19.62</v>
+      </c>
+      <c r="I9" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="J9" s="33">
+        <v>87.5</v>
+      </c>
+      <c r="K9" s="33">
+        <v>33.29</v>
+      </c>
+      <c r="L9" s="33">
+        <v>155.99</v>
+      </c>
+      <c r="M9" s="33">
+        <v>307.7</v>
+      </c>
+      <c r="N9" s="33">
+        <v>59.69</v>
+      </c>
+      <c r="O9" s="33">
+        <v>226.99</v>
+      </c>
+      <c r="P9" s="33">
+        <v>358.03</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>9970.61</v>
+      </c>
+      <c r="R9" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S9" s="33">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18">
+      <c r="A10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="33">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="F10" s="33">
+        <v>6.88</v>
+      </c>
+      <c r="G10" s="33">
+        <v>10.76</v>
+      </c>
+      <c r="H10" s="33">
+        <v>54.03</v>
+      </c>
+      <c r="I10" s="33">
+        <v>18.89</v>
+      </c>
+      <c r="J10" s="33">
+        <v>208.57</v>
+      </c>
+      <c r="K10" s="33">
+        <v>72.44</v>
+      </c>
+      <c r="L10" s="33">
+        <v>314.06</v>
+      </c>
+      <c r="M10" s="33">
+        <v>525.02</v>
+      </c>
+      <c r="N10" s="33">
+        <v>93.69</v>
+      </c>
+      <c r="O10" s="33">
+        <v>455.81</v>
+      </c>
+      <c r="P10" s="33">
+        <v>433.04</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>9065.15</v>
+      </c>
+      <c r="R10" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S10" s="33">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18">
+      <c r="A11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="33">
+        <v>24.96</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="F11" s="33">
+        <v>6.68</v>
+      </c>
+      <c r="G11" s="33">
+        <v>11.47</v>
+      </c>
+      <c r="H11" s="33">
+        <v>50.3</v>
+      </c>
+      <c r="I11" s="33">
+        <v>17.93</v>
+      </c>
+      <c r="J11" s="33">
+        <v>201.96</v>
+      </c>
+      <c r="K11" s="33">
+        <v>73.22</v>
+      </c>
+      <c r="L11" s="33">
+        <v>327.37</v>
+      </c>
+      <c r="M11" s="33">
+        <v>560.63</v>
+      </c>
+      <c r="N11" s="33">
+        <v>102.45</v>
+      </c>
+      <c r="O11" s="33">
+        <v>583.66</v>
+      </c>
+      <c r="P11" s="33">
+        <v>604.38</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>10272.77</v>
+      </c>
+      <c r="R11" s="35">
+        <v>497555</v>
+      </c>
+      <c r="S11" s="33">
+        <v>24.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:V15"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1922,20 +2596,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEE56F5-8D94-D145-BC38-13F347A6CBC9}">
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="16" max="16" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
@@ -1999,925 +2677,652 @@
       <c r="U1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="18">
+    </row>
+    <row r="2" spans="1:21" ht="18">
       <c r="A2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="36">
-        <v>3</v>
-      </c>
-      <c r="D2" s="37">
-        <v>3</v>
-      </c>
-      <c r="E2" s="37">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37">
-        <v>3</v>
-      </c>
-      <c r="G2" s="37">
-        <v>3</v>
-      </c>
-      <c r="H2" s="37">
-        <v>3</v>
-      </c>
-      <c r="I2" s="37">
-        <v>3</v>
-      </c>
-      <c r="J2" s="37">
-        <v>3</v>
-      </c>
-      <c r="K2" s="37">
-        <v>3</v>
-      </c>
-      <c r="L2" s="37">
-        <v>3</v>
-      </c>
-      <c r="M2" s="37">
-        <v>3</v>
-      </c>
-      <c r="N2" s="37">
-        <v>3</v>
-      </c>
-      <c r="O2" s="37">
-        <v>3</v>
-      </c>
-      <c r="P2" s="37">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="37">
-        <v>4</v>
-      </c>
-      <c r="R2" s="37">
-        <v>4</v>
-      </c>
-      <c r="S2" s="37">
-        <v>4</v>
-      </c>
-      <c r="T2" s="37">
-        <v>4</v>
-      </c>
-      <c r="U2" s="37">
-        <v>4</v>
-      </c>
-      <c r="V2" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18">
-      <c r="A3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" ht="18">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="23">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D4" s="24">
-        <v>1.143</v>
-      </c>
-      <c r="E4" s="24">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="F4" s="24">
-        <v>1.109</v>
-      </c>
-      <c r="G4" s="24">
-        <v>1.079</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="I4" s="24">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="J4" s="24">
-        <v>1.04</v>
-      </c>
-      <c r="K4" s="24">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="L4" s="24">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="M4" s="24">
-        <v>1.004</v>
-      </c>
-      <c r="N4" s="24">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="P4" s="24">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>1.05</v>
-      </c>
-      <c r="R4" s="15">
-        <v>1</v>
-      </c>
-      <c r="S4" s="15">
-        <v>0.83</v>
-      </c>
-      <c r="T4" s="26">
-        <v>0.84</v>
-      </c>
-      <c r="U4" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="V4" s="27">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="16">
-        <v>0.84</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="L5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="M5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="N5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="P5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="R5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="S5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="T5" s="28">
-        <v>0.84</v>
-      </c>
-      <c r="U5" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="V5" s="18">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="18">
-      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C2" s="31">
         <v>23.87</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D2" s="31">
         <v>52.79</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E2" s="31">
         <v>6.22</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F2" s="31">
         <v>24.85</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G2" s="31">
         <v>4.96</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H2" s="31">
         <v>1.07</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I2" s="31">
         <v>4.3</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J2" s="31">
         <v>0.63</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K2" s="31">
         <v>4.04</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L2" s="31">
         <v>0.79</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M2" s="31">
         <v>2.2400000000000002</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P2" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q2" s="31">
         <v>16.88</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R2" s="31">
         <v>4.6100000000000003</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S2" s="31">
         <v>5.47</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T2" s="31">
         <v>156.88</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U2" s="31">
         <v>52.79</v>
       </c>
-      <c r="V6" s="19"/>
-    </row>
-    <row r="7" spans="1:22" ht="18">
+    </row>
+    <row r="3" spans="1:21" ht="18">
+      <c r="A3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="33">
+        <v>27.99</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="33">
+        <v>3.54</v>
+      </c>
+      <c r="G3" s="33">
+        <v>6.11</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="I3" s="33">
+        <v>32.65</v>
+      </c>
+      <c r="J3" s="33">
+        <v>11.6</v>
+      </c>
+      <c r="K3" s="33">
+        <v>130.34</v>
+      </c>
+      <c r="L3" s="33">
+        <v>47.15</v>
+      </c>
+      <c r="M3" s="33">
+        <v>215.53</v>
+      </c>
+      <c r="N3" s="33">
+        <v>43.87</v>
+      </c>
+      <c r="O3" s="33">
+        <v>385.83</v>
+      </c>
+      <c r="P3" s="33">
+        <v>72.89</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>539.94000000000005</v>
+      </c>
+      <c r="R3" s="33">
+        <v>541.37</v>
+      </c>
+      <c r="S3" s="33">
+        <v>8963.76</v>
+      </c>
+      <c r="T3" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U3" s="33">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18">
+      <c r="A4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="33">
+        <v>21.34</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.17</v>
+      </c>
+      <c r="F4" s="33">
+        <v>2.68</v>
+      </c>
+      <c r="G4" s="33">
+        <v>5.34</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="I4" s="33">
+        <v>27.1</v>
+      </c>
+      <c r="J4" s="33">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="K4" s="33">
+        <v>107.17</v>
+      </c>
+      <c r="L4" s="33">
+        <v>38.93</v>
+      </c>
+      <c r="M4" s="33">
+        <v>174.98</v>
+      </c>
+      <c r="N4" s="33">
+        <v>35.56</v>
+      </c>
+      <c r="O4" s="33">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="P4" s="33">
+        <v>57.26</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>338.94</v>
+      </c>
+      <c r="R4" s="33">
+        <v>364.63</v>
+      </c>
+      <c r="S4" s="33">
+        <v>8080.83</v>
+      </c>
+      <c r="T4" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U4" s="33">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18">
+      <c r="A5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="33">
+        <v>19.13</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="F5" s="33">
+        <v>5.95</v>
+      </c>
+      <c r="G5" s="33">
+        <v>11.9</v>
+      </c>
+      <c r="H5" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="33">
+        <v>60.22</v>
+      </c>
+      <c r="J5" s="33">
+        <v>19.45</v>
+      </c>
+      <c r="K5" s="33">
+        <v>206.7</v>
+      </c>
+      <c r="L5" s="33">
+        <v>69.08</v>
+      </c>
+      <c r="M5" s="33">
+        <v>286.82</v>
+      </c>
+      <c r="N5" s="33">
+        <v>55.15</v>
+      </c>
+      <c r="O5" s="33">
+        <v>454.09</v>
+      </c>
+      <c r="P5" s="33">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>484.74</v>
+      </c>
+      <c r="R5" s="33">
+        <v>393.02</v>
+      </c>
+      <c r="S5" s="33">
+        <v>7217.99</v>
+      </c>
+      <c r="T5" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U5" s="33">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18">
+      <c r="A6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="33">
+        <v>25.09</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="33">
+        <v>2.76</v>
+      </c>
+      <c r="G6" s="33">
+        <v>5.44</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.51</v>
+      </c>
+      <c r="I6" s="33">
+        <v>30.58</v>
+      </c>
+      <c r="J6" s="33">
+        <v>11.48</v>
+      </c>
+      <c r="K6" s="33">
+        <v>139.43</v>
+      </c>
+      <c r="L6" s="33">
+        <v>55.29</v>
+      </c>
+      <c r="M6" s="33">
+        <v>269.67</v>
+      </c>
+      <c r="N6" s="33">
+        <v>57.73</v>
+      </c>
+      <c r="O6" s="33">
+        <v>525.45000000000005</v>
+      </c>
+      <c r="P6" s="33">
+        <v>102.78</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>398.75</v>
+      </c>
+      <c r="R6" s="33">
+        <v>602.75</v>
+      </c>
+      <c r="S6" s="33">
+        <v>8149.73</v>
+      </c>
+      <c r="T6" s="35">
+        <v>497555</v>
+      </c>
+      <c r="U6" s="33">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" s="33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D7" s="33">
-        <v>27.99</v>
+        <v>25.01</v>
       </c>
       <c r="E7" s="33">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F7" s="33">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="G7" s="33">
-        <v>6.11</v>
+        <v>6.58</v>
       </c>
       <c r="H7" s="33">
-        <v>0.48</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I7" s="33">
-        <v>32.65</v>
+        <v>33.93</v>
       </c>
       <c r="J7" s="33">
-        <v>11.6</v>
+        <v>12.81</v>
       </c>
       <c r="K7" s="33">
-        <v>130.34</v>
+        <v>150.38999999999999</v>
       </c>
       <c r="L7" s="33">
-        <v>47.15</v>
+        <v>57.66</v>
       </c>
       <c r="M7" s="33">
-        <v>215.53</v>
+        <v>276.5</v>
       </c>
       <c r="N7" s="33">
-        <v>43.87</v>
+        <v>57.8</v>
       </c>
       <c r="O7" s="33">
-        <v>385.83</v>
+        <v>517.1</v>
       </c>
       <c r="P7" s="33">
-        <v>72.89</v>
+        <v>97.44</v>
       </c>
       <c r="Q7" s="33">
-        <v>539.94000000000005</v>
+        <v>588.23</v>
       </c>
       <c r="R7" s="33">
-        <v>541.37</v>
+        <v>626.54999999999995</v>
       </c>
       <c r="S7" s="33">
-        <v>8963.76</v>
+        <v>7499.11</v>
       </c>
       <c r="T7" s="35">
         <v>497555</v>
       </c>
       <c r="U7" s="33">
-        <v>27.99</v>
-      </c>
-      <c r="V7" s="19"/>
-    </row>
-    <row r="8" spans="1:22" ht="18">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18">
       <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D8" s="33">
-        <v>21.34</v>
+        <v>15.37</v>
       </c>
       <c r="E8" s="33">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="F8" s="33">
-        <v>2.68</v>
+        <v>3.49</v>
       </c>
       <c r="G8" s="33">
-        <v>5.34</v>
+        <v>6.43</v>
       </c>
       <c r="H8" s="33">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I8" s="33">
-        <v>27.1</v>
+        <v>35.67</v>
       </c>
       <c r="J8" s="33">
-        <v>9.5299999999999994</v>
+        <v>12.37</v>
       </c>
       <c r="K8" s="33">
-        <v>107.17</v>
+        <v>137.31</v>
       </c>
       <c r="L8" s="33">
-        <v>38.93</v>
+        <v>49.03</v>
       </c>
       <c r="M8" s="33">
-        <v>174.98</v>
+        <v>212.55</v>
       </c>
       <c r="N8" s="33">
-        <v>35.56</v>
+        <v>42.43</v>
       </c>
       <c r="O8" s="33">
-        <v>308.14999999999998</v>
+        <v>374.05</v>
       </c>
       <c r="P8" s="33">
-        <v>57.26</v>
+        <v>68.88</v>
       </c>
       <c r="Q8" s="33">
-        <v>338.94</v>
+        <v>281.79000000000002</v>
       </c>
       <c r="R8" s="33">
-        <v>364.63</v>
+        <v>323.72000000000003</v>
       </c>
       <c r="S8" s="33">
-        <v>8080.83</v>
+        <v>8070.96</v>
       </c>
       <c r="T8" s="35">
         <v>497555</v>
       </c>
       <c r="U8" s="33">
-        <v>21.34</v>
-      </c>
-      <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" ht="18">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18">
       <c r="A9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="33">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="D9" s="33">
-        <v>19.13</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="E9" s="33">
-        <v>0.42</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F9" s="33">
-        <v>5.95</v>
+        <v>1.8</v>
       </c>
       <c r="G9" s="33">
-        <v>11.9</v>
+        <v>3.57</v>
       </c>
       <c r="H9" s="33">
-        <v>1.3</v>
+        <v>0.31</v>
       </c>
       <c r="I9" s="33">
-        <v>60.22</v>
+        <v>19.62</v>
       </c>
       <c r="J9" s="33">
-        <v>19.45</v>
+        <v>7.5</v>
       </c>
       <c r="K9" s="33">
-        <v>206.7</v>
+        <v>87.5</v>
       </c>
       <c r="L9" s="33">
-        <v>69.08</v>
+        <v>33.29</v>
       </c>
       <c r="M9" s="33">
-        <v>286.82</v>
+        <v>155.99</v>
       </c>
       <c r="N9" s="33">
-        <v>55.15</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="O9" s="33">
-        <v>454.09</v>
+        <v>307.7</v>
       </c>
       <c r="P9" s="33">
-        <v>79.069999999999993</v>
+        <v>59.69</v>
       </c>
       <c r="Q9" s="33">
-        <v>484.74</v>
+        <v>226.99</v>
       </c>
       <c r="R9" s="33">
-        <v>393.02</v>
+        <v>358.03</v>
       </c>
       <c r="S9" s="33">
-        <v>7217.99</v>
+        <v>9970.61</v>
       </c>
       <c r="T9" s="35">
         <v>497555</v>
       </c>
       <c r="U9" s="33">
-        <v>19.13</v>
-      </c>
-      <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" ht="18">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="33">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D10" s="33">
-        <v>25.09</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E10" s="33">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="F10" s="33">
-        <v>2.76</v>
+        <v>6.88</v>
       </c>
       <c r="G10" s="33">
-        <v>5.44</v>
+        <v>10.76</v>
       </c>
       <c r="H10" s="33">
-        <v>0.51</v>
+        <v>0.83</v>
       </c>
       <c r="I10" s="33">
-        <v>30.58</v>
+        <v>54.03</v>
       </c>
       <c r="J10" s="33">
-        <v>11.48</v>
+        <v>18.89</v>
       </c>
       <c r="K10" s="33">
-        <v>139.43</v>
+        <v>208.57</v>
       </c>
       <c r="L10" s="33">
-        <v>55.29</v>
+        <v>72.44</v>
       </c>
       <c r="M10" s="33">
-        <v>269.67</v>
+        <v>314.06</v>
       </c>
       <c r="N10" s="33">
-        <v>57.73</v>
+        <v>61.52</v>
       </c>
       <c r="O10" s="33">
-        <v>525.45000000000005</v>
+        <v>525.02</v>
       </c>
       <c r="P10" s="33">
-        <v>102.78</v>
+        <v>93.69</v>
       </c>
       <c r="Q10" s="33">
-        <v>398.75</v>
+        <v>455.81</v>
       </c>
       <c r="R10" s="33">
-        <v>602.75</v>
+        <v>433.04</v>
       </c>
       <c r="S10" s="33">
-        <v>8149.73</v>
+        <v>9065.15</v>
       </c>
       <c r="T10" s="35">
         <v>497555</v>
       </c>
       <c r="U10" s="33">
-        <v>25.09</v>
-      </c>
-      <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" ht="18">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>30</v>
+      <c r="B11" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="33">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D11" s="33">
-        <v>25.01</v>
+        <v>24.96</v>
       </c>
       <c r="E11" s="33">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="F11" s="33">
-        <v>3.31</v>
+        <v>6.68</v>
       </c>
       <c r="G11" s="33">
-        <v>6.58</v>
+        <v>11.47</v>
       </c>
       <c r="H11" s="33">
-        <v>0.56999999999999995</v>
+        <v>0.79</v>
       </c>
       <c r="I11" s="33">
-        <v>33.93</v>
+        <v>50.3</v>
       </c>
       <c r="J11" s="33">
-        <v>12.81</v>
+        <v>17.93</v>
       </c>
       <c r="K11" s="33">
-        <v>150.38999999999999</v>
+        <v>201.96</v>
       </c>
       <c r="L11" s="33">
-        <v>57.66</v>
+        <v>73.22</v>
       </c>
       <c r="M11" s="33">
-        <v>276.5</v>
+        <v>327.37</v>
       </c>
       <c r="N11" s="33">
-        <v>57.8</v>
+        <v>64.75</v>
       </c>
       <c r="O11" s="33">
-        <v>517.1</v>
+        <v>560.63</v>
       </c>
       <c r="P11" s="33">
-        <v>97.44</v>
+        <v>102.45</v>
       </c>
       <c r="Q11" s="33">
-        <v>588.23</v>
+        <v>583.66</v>
       </c>
       <c r="R11" s="33">
-        <v>626.54999999999995</v>
+        <v>604.38</v>
       </c>
       <c r="S11" s="33">
-        <v>7499.11</v>
+        <v>10272.77</v>
       </c>
       <c r="T11" s="35">
         <v>497555</v>
       </c>
       <c r="U11" s="33">
-        <v>25.01</v>
-      </c>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" ht="18">
-      <c r="A12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="33">
-        <v>15.37</v>
-      </c>
-      <c r="E12" s="33">
-        <v>0.21</v>
-      </c>
-      <c r="F12" s="33">
-        <v>3.49</v>
-      </c>
-      <c r="G12" s="33">
-        <v>6.43</v>
-      </c>
-      <c r="H12" s="33">
-        <v>0.54</v>
-      </c>
-      <c r="I12" s="33">
-        <v>35.67</v>
-      </c>
-      <c r="J12" s="33">
-        <v>12.37</v>
-      </c>
-      <c r="K12" s="33">
-        <v>137.31</v>
-      </c>
-      <c r="L12" s="33">
-        <v>49.03</v>
-      </c>
-      <c r="M12" s="33">
-        <v>212.55</v>
-      </c>
-      <c r="N12" s="33">
-        <v>42.43</v>
-      </c>
-      <c r="O12" s="33">
-        <v>374.05</v>
-      </c>
-      <c r="P12" s="33">
-        <v>68.88</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>281.79000000000002</v>
-      </c>
-      <c r="R12" s="33">
-        <v>323.72000000000003</v>
-      </c>
-      <c r="S12" s="33">
-        <v>8070.96</v>
-      </c>
-      <c r="T12" s="35">
-        <v>497555</v>
-      </c>
-      <c r="U12" s="33">
-        <v>15.37</v>
-      </c>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" ht="18">
-      <c r="A13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="D13" s="33">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="E13" s="33">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F13" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="G13" s="33">
-        <v>3.57</v>
-      </c>
-      <c r="H13" s="33">
-        <v>0.31</v>
-      </c>
-      <c r="I13" s="33">
-        <v>19.62</v>
-      </c>
-      <c r="J13" s="33">
-        <v>7.5</v>
-      </c>
-      <c r="K13" s="33">
-        <v>87.5</v>
-      </c>
-      <c r="L13" s="33">
-        <v>33.29</v>
-      </c>
-      <c r="M13" s="33">
-        <v>155.99</v>
-      </c>
-      <c r="N13" s="33">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="O13" s="33">
-        <v>307.7</v>
-      </c>
-      <c r="P13" s="33">
-        <v>59.69</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>226.99</v>
-      </c>
-      <c r="R13" s="33">
-        <v>358.03</v>
-      </c>
-      <c r="S13" s="33">
-        <v>9970.61</v>
-      </c>
-      <c r="T13" s="35">
-        <v>497555</v>
-      </c>
-      <c r="U13" s="33">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" ht="18">
-      <c r="A14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="33">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E14" s="33">
-        <v>0.48</v>
-      </c>
-      <c r="F14" s="33">
-        <v>6.88</v>
-      </c>
-      <c r="G14" s="33">
-        <v>10.76</v>
-      </c>
-      <c r="H14" s="33">
-        <v>0.83</v>
-      </c>
-      <c r="I14" s="33">
-        <v>54.03</v>
-      </c>
-      <c r="J14" s="33">
-        <v>18.89</v>
-      </c>
-      <c r="K14" s="33">
-        <v>208.57</v>
-      </c>
-      <c r="L14" s="33">
-        <v>72.44</v>
-      </c>
-      <c r="M14" s="33">
-        <v>314.06</v>
-      </c>
-      <c r="N14" s="33">
-        <v>61.52</v>
-      </c>
-      <c r="O14" s="33">
-        <v>525.02</v>
-      </c>
-      <c r="P14" s="33">
-        <v>93.69</v>
-      </c>
-      <c r="Q14" s="33">
-        <v>455.81</v>
-      </c>
-      <c r="R14" s="33">
-        <v>433.04</v>
-      </c>
-      <c r="S14" s="33">
-        <v>9065.15</v>
-      </c>
-      <c r="T14" s="35">
-        <v>497555</v>
-      </c>
-      <c r="U14" s="33">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="V14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" ht="18">
-      <c r="A15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D15" s="33">
         <v>24.96</v>
       </c>
-      <c r="E15" s="33">
-        <v>0.41</v>
-      </c>
-      <c r="F15" s="33">
-        <v>6.68</v>
-      </c>
-      <c r="G15" s="33">
-        <v>11.47</v>
-      </c>
-      <c r="H15" s="33">
-        <v>0.79</v>
-      </c>
-      <c r="I15" s="33">
-        <v>50.3</v>
-      </c>
-      <c r="J15" s="33">
-        <v>17.93</v>
-      </c>
-      <c r="K15" s="33">
-        <v>201.96</v>
-      </c>
-      <c r="L15" s="33">
-        <v>73.22</v>
-      </c>
-      <c r="M15" s="33">
-        <v>327.37</v>
-      </c>
-      <c r="N15" s="33">
-        <v>64.75</v>
-      </c>
-      <c r="O15" s="33">
-        <v>560.63</v>
-      </c>
-      <c r="P15" s="33">
-        <v>102.45</v>
-      </c>
-      <c r="Q15" s="33">
-        <v>583.66</v>
-      </c>
-      <c r="R15" s="33">
-        <v>604.38</v>
-      </c>
-      <c r="S15" s="33">
-        <v>10272.77</v>
-      </c>
-      <c r="T15" s="35">
-        <v>497555</v>
-      </c>
-      <c r="U15" s="33">
-        <v>24.96</v>
-      </c>
-      <c r="V15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataFileSamples/Zircon Ce Calculation/ZirconCe.xlsx
+++ b/DataFileSamples/Zircon Ce Calculation/ZirconCe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/Zircon Ce Calculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0F111DAB-6C42-1C44-9761-2FC4B81D292E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{794FE373-F91C-EB41-A595-69AB658F2E74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="460" windowWidth="21600" windowHeight="18960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15400" yWindow="2640" windowWidth="21600" windowHeight="18960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsedData" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>Tb</t>
   </si>
@@ -921,77 +921,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18">
+    <row r="2" spans="1:17" ht="18">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -999,58 +993,52 @@
         <v>22</v>
       </c>
       <c r="C2" s="31">
-        <v>23.87</v>
+        <v>52.79</v>
       </c>
       <c r="D2" s="31">
+        <v>24.85</v>
+      </c>
+      <c r="E2" s="31">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0.63</v>
+      </c>
+      <c r="H2" s="31">
+        <v>4.04</v>
+      </c>
+      <c r="I2" s="31">
+        <v>0.79</v>
+      </c>
+      <c r="J2" s="31">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K2" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L2" s="31">
+        <v>0.34</v>
+      </c>
+      <c r="M2" s="31">
+        <v>16.88</v>
+      </c>
+      <c r="N2" s="31">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O2" s="31">
+        <v>5.47</v>
+      </c>
+      <c r="P2" s="31">
+        <v>156.88</v>
+      </c>
+      <c r="Q2" s="31">
         <v>52.79</v>
       </c>
-      <c r="E2" s="31">
-        <v>6.22</v>
-      </c>
-      <c r="F2" s="31">
-        <v>24.85</v>
-      </c>
-      <c r="G2" s="31">
-        <v>4.96</v>
-      </c>
-      <c r="H2" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="I2" s="31">
-        <v>0.63</v>
-      </c>
-      <c r="J2" s="31">
-        <v>4.04</v>
-      </c>
-      <c r="K2" s="31">
-        <v>0.79</v>
-      </c>
-      <c r="L2" s="31">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="M2" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N2" s="31">
-        <v>0.34</v>
-      </c>
-      <c r="O2" s="31">
-        <v>16.88</v>
-      </c>
-      <c r="P2" s="31">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="Q2" s="31">
-        <v>5.47</v>
-      </c>
-      <c r="R2" s="31">
-        <v>156.88</v>
-      </c>
-      <c r="S2" s="31">
-        <v>52.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18">
+    </row>
+    <row r="3" spans="1:17" ht="18">
       <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
@@ -1058,58 +1046,52 @@
         <v>19</v>
       </c>
       <c r="C3" s="33">
-        <v>0.01</v>
+        <v>27.99</v>
       </c>
       <c r="D3" s="33">
+        <v>3.54</v>
+      </c>
+      <c r="E3" s="33">
+        <v>6.11</v>
+      </c>
+      <c r="F3" s="33">
+        <v>32.65</v>
+      </c>
+      <c r="G3" s="33">
+        <v>11.6</v>
+      </c>
+      <c r="H3" s="33">
+        <v>130.34</v>
+      </c>
+      <c r="I3" s="33">
+        <v>47.15</v>
+      </c>
+      <c r="J3" s="33">
+        <v>215.53</v>
+      </c>
+      <c r="K3" s="33">
+        <v>385.83</v>
+      </c>
+      <c r="L3" s="33">
+        <v>72.89</v>
+      </c>
+      <c r="M3" s="33">
+        <v>539.94000000000005</v>
+      </c>
+      <c r="N3" s="33">
+        <v>541.37</v>
+      </c>
+      <c r="O3" s="33">
+        <v>8963.76</v>
+      </c>
+      <c r="P3" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q3" s="33">
         <v>27.99</v>
       </c>
-      <c r="E3" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="33">
-        <v>3.54</v>
-      </c>
-      <c r="G3" s="33">
-        <v>6.11</v>
-      </c>
-      <c r="H3" s="33">
-        <v>32.65</v>
-      </c>
-      <c r="I3" s="33">
-        <v>11.6</v>
-      </c>
-      <c r="J3" s="33">
-        <v>130.34</v>
-      </c>
-      <c r="K3" s="33">
-        <v>47.15</v>
-      </c>
-      <c r="L3" s="33">
-        <v>215.53</v>
-      </c>
-      <c r="M3" s="33">
-        <v>385.83</v>
-      </c>
-      <c r="N3" s="33">
-        <v>72.89</v>
-      </c>
-      <c r="O3" s="33">
-        <v>539.94000000000005</v>
-      </c>
-      <c r="P3" s="33">
-        <v>541.37</v>
-      </c>
-      <c r="Q3" s="33">
-        <v>8963.76</v>
-      </c>
-      <c r="R3" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S3" s="33">
-        <v>27.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18">
+    </row>
+    <row r="4" spans="1:17" ht="18">
       <c r="A4" s="20" t="s">
         <v>38</v>
       </c>
@@ -1117,58 +1099,52 @@
         <v>40</v>
       </c>
       <c r="C4" s="33">
-        <v>0.01</v>
+        <v>21.34</v>
       </c>
       <c r="D4" s="33">
+        <v>2.68</v>
+      </c>
+      <c r="E4" s="33">
+        <v>5.34</v>
+      </c>
+      <c r="F4" s="33">
+        <v>27.1</v>
+      </c>
+      <c r="G4" s="33">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="H4" s="33">
+        <v>107.17</v>
+      </c>
+      <c r="I4" s="33">
+        <v>38.93</v>
+      </c>
+      <c r="J4" s="33">
+        <v>174.98</v>
+      </c>
+      <c r="K4" s="33">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="L4" s="33">
+        <v>57.26</v>
+      </c>
+      <c r="M4" s="33">
+        <v>338.94</v>
+      </c>
+      <c r="N4" s="33">
+        <v>364.63</v>
+      </c>
+      <c r="O4" s="33">
+        <v>8080.83</v>
+      </c>
+      <c r="P4" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q4" s="33">
         <v>21.34</v>
       </c>
-      <c r="E4" s="33">
-        <v>0.17</v>
-      </c>
-      <c r="F4" s="33">
-        <v>2.68</v>
-      </c>
-      <c r="G4" s="33">
-        <v>5.34</v>
-      </c>
-      <c r="H4" s="33">
-        <v>27.1</v>
-      </c>
-      <c r="I4" s="33">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="J4" s="33">
-        <v>107.17</v>
-      </c>
-      <c r="K4" s="33">
-        <v>38.93</v>
-      </c>
-      <c r="L4" s="33">
-        <v>174.98</v>
-      </c>
-      <c r="M4" s="33">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="N4" s="33">
-        <v>57.26</v>
-      </c>
-      <c r="O4" s="33">
-        <v>338.94</v>
-      </c>
-      <c r="P4" s="33">
-        <v>364.63</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>8080.83</v>
-      </c>
-      <c r="R4" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S4" s="33">
-        <v>21.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18">
+    </row>
+    <row r="5" spans="1:17" ht="18">
       <c r="A5" s="20" t="s">
         <v>38</v>
       </c>
@@ -1176,58 +1152,52 @@
         <v>28</v>
       </c>
       <c r="C5" s="33">
-        <v>0.04</v>
+        <v>19.13</v>
       </c>
       <c r="D5" s="33">
+        <v>5.95</v>
+      </c>
+      <c r="E5" s="33">
+        <v>11.9</v>
+      </c>
+      <c r="F5" s="33">
+        <v>60.22</v>
+      </c>
+      <c r="G5" s="33">
+        <v>19.45</v>
+      </c>
+      <c r="H5" s="33">
+        <v>206.7</v>
+      </c>
+      <c r="I5" s="33">
+        <v>69.08</v>
+      </c>
+      <c r="J5" s="33">
+        <v>286.82</v>
+      </c>
+      <c r="K5" s="33">
+        <v>454.09</v>
+      </c>
+      <c r="L5" s="33">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="M5" s="33">
+        <v>484.74</v>
+      </c>
+      <c r="N5" s="33">
+        <v>393.02</v>
+      </c>
+      <c r="O5" s="33">
+        <v>7217.99</v>
+      </c>
+      <c r="P5" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q5" s="33">
         <v>19.13</v>
       </c>
-      <c r="E5" s="33">
-        <v>0.42</v>
-      </c>
-      <c r="F5" s="33">
-        <v>5.95</v>
-      </c>
-      <c r="G5" s="33">
-        <v>11.9</v>
-      </c>
-      <c r="H5" s="33">
-        <v>60.22</v>
-      </c>
-      <c r="I5" s="33">
-        <v>19.45</v>
-      </c>
-      <c r="J5" s="33">
-        <v>206.7</v>
-      </c>
-      <c r="K5" s="33">
-        <v>69.08</v>
-      </c>
-      <c r="L5" s="33">
-        <v>286.82</v>
-      </c>
-      <c r="M5" s="33">
-        <v>454.09</v>
-      </c>
-      <c r="N5" s="33">
-        <v>79.069999999999993</v>
-      </c>
-      <c r="O5" s="33">
-        <v>484.74</v>
-      </c>
-      <c r="P5" s="33">
-        <v>393.02</v>
-      </c>
-      <c r="Q5" s="33">
-        <v>7217.99</v>
-      </c>
-      <c r="R5" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S5" s="33">
-        <v>19.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="18">
+    </row>
+    <row r="6" spans="1:17" ht="18">
       <c r="A6" s="20" t="s">
         <v>38</v>
       </c>
@@ -1235,58 +1205,52 @@
         <v>29</v>
       </c>
       <c r="C6" s="33">
-        <v>0.01</v>
+        <v>25.09</v>
       </c>
       <c r="D6" s="33">
+        <v>2.76</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5.44</v>
+      </c>
+      <c r="F6" s="33">
+        <v>30.58</v>
+      </c>
+      <c r="G6" s="33">
+        <v>11.48</v>
+      </c>
+      <c r="H6" s="33">
+        <v>139.43</v>
+      </c>
+      <c r="I6" s="33">
+        <v>55.29</v>
+      </c>
+      <c r="J6" s="33">
+        <v>269.67</v>
+      </c>
+      <c r="K6" s="33">
+        <v>525.45000000000005</v>
+      </c>
+      <c r="L6" s="33">
+        <v>102.78</v>
+      </c>
+      <c r="M6" s="33">
+        <v>398.75</v>
+      </c>
+      <c r="N6" s="33">
+        <v>602.75</v>
+      </c>
+      <c r="O6" s="33">
+        <v>8149.73</v>
+      </c>
+      <c r="P6" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q6" s="33">
         <v>25.09</v>
       </c>
-      <c r="E6" s="33">
-        <v>0.16</v>
-      </c>
-      <c r="F6" s="33">
-        <v>2.76</v>
-      </c>
-      <c r="G6" s="33">
-        <v>5.44</v>
-      </c>
-      <c r="H6" s="33">
-        <v>30.58</v>
-      </c>
-      <c r="I6" s="33">
-        <v>11.48</v>
-      </c>
-      <c r="J6" s="33">
-        <v>139.43</v>
-      </c>
-      <c r="K6" s="33">
-        <v>55.29</v>
-      </c>
-      <c r="L6" s="33">
-        <v>269.67</v>
-      </c>
-      <c r="M6" s="33">
-        <v>525.45000000000005</v>
-      </c>
-      <c r="N6" s="33">
-        <v>102.78</v>
-      </c>
-      <c r="O6" s="33">
-        <v>398.75</v>
-      </c>
-      <c r="P6" s="33">
-        <v>602.75</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>8149.73</v>
-      </c>
-      <c r="R6" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S6" s="33">
-        <v>25.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="18">
+    </row>
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
@@ -1294,58 +1258,52 @@
         <v>30</v>
       </c>
       <c r="C7" s="33">
-        <v>0.02</v>
+        <v>25.01</v>
       </c>
       <c r="D7" s="33">
+        <v>3.31</v>
+      </c>
+      <c r="E7" s="33">
+        <v>6.58</v>
+      </c>
+      <c r="F7" s="33">
+        <v>33.93</v>
+      </c>
+      <c r="G7" s="33">
+        <v>12.81</v>
+      </c>
+      <c r="H7" s="33">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="I7" s="33">
+        <v>57.66</v>
+      </c>
+      <c r="J7" s="33">
+        <v>276.5</v>
+      </c>
+      <c r="K7" s="33">
+        <v>517.1</v>
+      </c>
+      <c r="L7" s="33">
+        <v>97.44</v>
+      </c>
+      <c r="M7" s="33">
+        <v>588.23</v>
+      </c>
+      <c r="N7" s="33">
+        <v>626.54999999999995</v>
+      </c>
+      <c r="O7" s="33">
+        <v>7499.11</v>
+      </c>
+      <c r="P7" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q7" s="33">
         <v>25.01</v>
       </c>
-      <c r="E7" s="33">
-        <v>0.18</v>
-      </c>
-      <c r="F7" s="33">
-        <v>3.31</v>
-      </c>
-      <c r="G7" s="33">
-        <v>6.58</v>
-      </c>
-      <c r="H7" s="33">
-        <v>33.93</v>
-      </c>
-      <c r="I7" s="33">
-        <v>12.81</v>
-      </c>
-      <c r="J7" s="33">
-        <v>150.38999999999999</v>
-      </c>
-      <c r="K7" s="33">
-        <v>57.66</v>
-      </c>
-      <c r="L7" s="33">
-        <v>276.5</v>
-      </c>
-      <c r="M7" s="33">
-        <v>517.1</v>
-      </c>
-      <c r="N7" s="33">
-        <v>97.44</v>
-      </c>
-      <c r="O7" s="33">
-        <v>588.23</v>
-      </c>
-      <c r="P7" s="33">
-        <v>626.54999999999995</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>7499.11</v>
-      </c>
-      <c r="R7" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S7" s="33">
-        <v>25.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18">
+    </row>
+    <row r="8" spans="1:17" ht="18">
       <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
@@ -1353,58 +1311,52 @@
         <v>31</v>
       </c>
       <c r="C8" s="33">
-        <v>0.02</v>
+        <v>15.37</v>
       </c>
       <c r="D8" s="33">
+        <v>3.49</v>
+      </c>
+      <c r="E8" s="33">
+        <v>6.43</v>
+      </c>
+      <c r="F8" s="33">
+        <v>35.67</v>
+      </c>
+      <c r="G8" s="33">
+        <v>12.37</v>
+      </c>
+      <c r="H8" s="33">
+        <v>137.31</v>
+      </c>
+      <c r="I8" s="33">
+        <v>49.03</v>
+      </c>
+      <c r="J8" s="33">
+        <v>212.55</v>
+      </c>
+      <c r="K8" s="33">
+        <v>374.05</v>
+      </c>
+      <c r="L8" s="33">
+        <v>68.88</v>
+      </c>
+      <c r="M8" s="33">
+        <v>281.79000000000002</v>
+      </c>
+      <c r="N8" s="33">
+        <v>323.72000000000003</v>
+      </c>
+      <c r="O8" s="33">
+        <v>8070.96</v>
+      </c>
+      <c r="P8" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q8" s="33">
         <v>15.37</v>
       </c>
-      <c r="E8" s="33">
-        <v>0.21</v>
-      </c>
-      <c r="F8" s="33">
-        <v>3.49</v>
-      </c>
-      <c r="G8" s="33">
-        <v>6.43</v>
-      </c>
-      <c r="H8" s="33">
-        <v>35.67</v>
-      </c>
-      <c r="I8" s="33">
-        <v>12.37</v>
-      </c>
-      <c r="J8" s="33">
-        <v>137.31</v>
-      </c>
-      <c r="K8" s="33">
-        <v>49.03</v>
-      </c>
-      <c r="L8" s="33">
-        <v>212.55</v>
-      </c>
-      <c r="M8" s="33">
-        <v>374.05</v>
-      </c>
-      <c r="N8" s="33">
-        <v>68.88</v>
-      </c>
-      <c r="O8" s="33">
-        <v>281.79000000000002</v>
-      </c>
-      <c r="P8" s="33">
-        <v>323.72000000000003</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>8070.96</v>
-      </c>
-      <c r="R8" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S8" s="33">
-        <v>15.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="18">
+    </row>
+    <row r="9" spans="1:17" ht="18">
       <c r="A9" s="20" t="s">
         <v>38</v>
       </c>
@@ -1412,58 +1364,52 @@
         <v>32</v>
       </c>
       <c r="C9" s="33">
-        <v>0.11</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="D9" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="33">
+        <v>3.57</v>
+      </c>
+      <c r="F9" s="33">
+        <v>19.62</v>
+      </c>
+      <c r="G9" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="H9" s="33">
+        <v>87.5</v>
+      </c>
+      <c r="I9" s="33">
+        <v>33.29</v>
+      </c>
+      <c r="J9" s="33">
+        <v>155.99</v>
+      </c>
+      <c r="K9" s="33">
+        <v>307.7</v>
+      </c>
+      <c r="L9" s="33">
+        <v>59.69</v>
+      </c>
+      <c r="M9" s="33">
+        <v>226.99</v>
+      </c>
+      <c r="N9" s="33">
+        <v>358.03</v>
+      </c>
+      <c r="O9" s="33">
+        <v>9970.61</v>
+      </c>
+      <c r="P9" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q9" s="33">
         <v>18.260000000000002</v>
       </c>
-      <c r="E9" s="33">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="G9" s="33">
-        <v>3.57</v>
-      </c>
-      <c r="H9" s="33">
-        <v>19.62</v>
-      </c>
-      <c r="I9" s="33">
-        <v>7.5</v>
-      </c>
-      <c r="J9" s="33">
-        <v>87.5</v>
-      </c>
-      <c r="K9" s="33">
-        <v>33.29</v>
-      </c>
-      <c r="L9" s="33">
-        <v>155.99</v>
-      </c>
-      <c r="M9" s="33">
-        <v>307.7</v>
-      </c>
-      <c r="N9" s="33">
-        <v>59.69</v>
-      </c>
-      <c r="O9" s="33">
-        <v>226.99</v>
-      </c>
-      <c r="P9" s="33">
-        <v>358.03</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>9970.61</v>
-      </c>
-      <c r="R9" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S9" s="33">
-        <v>18.260000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="18">
+    </row>
+    <row r="10" spans="1:17" ht="18">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
@@ -1471,58 +1417,52 @@
         <v>33</v>
       </c>
       <c r="C10" s="33">
-        <v>0.05</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D10" s="33">
+        <v>6.88</v>
+      </c>
+      <c r="E10" s="33">
+        <v>10.76</v>
+      </c>
+      <c r="F10" s="33">
+        <v>54.03</v>
+      </c>
+      <c r="G10" s="33">
+        <v>18.89</v>
+      </c>
+      <c r="H10" s="33">
+        <v>208.57</v>
+      </c>
+      <c r="I10" s="33">
+        <v>72.44</v>
+      </c>
+      <c r="J10" s="33">
+        <v>314.06</v>
+      </c>
+      <c r="K10" s="33">
+        <v>525.02</v>
+      </c>
+      <c r="L10" s="33">
+        <v>93.69</v>
+      </c>
+      <c r="M10" s="33">
+        <v>455.81</v>
+      </c>
+      <c r="N10" s="33">
+        <v>433.04</v>
+      </c>
+      <c r="O10" s="33">
+        <v>9065.15</v>
+      </c>
+      <c r="P10" s="35">
+        <v>497555</v>
+      </c>
+      <c r="Q10" s="33">
         <v>19.600000000000001</v>
       </c>
-      <c r="E10" s="33">
-        <v>0.48</v>
-      </c>
-      <c r="F10" s="33">
-        <v>6.88</v>
-      </c>
-      <c r="G10" s="33">
-        <v>10.76</v>
-      </c>
-      <c r="H10" s="33">
-        <v>54.03</v>
-      </c>
-      <c r="I10" s="33">
-        <v>18.89</v>
-      </c>
-      <c r="J10" s="33">
-        <v>208.57</v>
-      </c>
-      <c r="K10" s="33">
-        <v>72.44</v>
-      </c>
-      <c r="L10" s="33">
-        <v>314.06</v>
-      </c>
-      <c r="M10" s="33">
-        <v>525.02</v>
-      </c>
-      <c r="N10" s="33">
-        <v>93.69</v>
-      </c>
-      <c r="O10" s="33">
-        <v>455.81</v>
-      </c>
-      <c r="P10" s="33">
-        <v>433.04</v>
-      </c>
-      <c r="Q10" s="33">
-        <v>9065.15</v>
-      </c>
-      <c r="R10" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S10" s="33">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="18">
+    </row>
+    <row r="11" spans="1:17" ht="18">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
@@ -1530,54 +1470,48 @@
         <v>34</v>
       </c>
       <c r="C11" s="33">
-        <v>0.03</v>
+        <v>24.96</v>
       </c>
       <c r="D11" s="33">
-        <v>24.96</v>
+        <v>6.68</v>
       </c>
       <c r="E11" s="33">
-        <v>0.41</v>
+        <v>11.47</v>
       </c>
       <c r="F11" s="33">
-        <v>6.68</v>
+        <v>50.3</v>
       </c>
       <c r="G11" s="33">
-        <v>11.47</v>
+        <v>17.93</v>
       </c>
       <c r="H11" s="33">
-        <v>50.3</v>
+        <v>201.96</v>
       </c>
       <c r="I11" s="33">
-        <v>17.93</v>
+        <v>73.22</v>
       </c>
       <c r="J11" s="33">
-        <v>201.96</v>
+        <v>327.37</v>
       </c>
       <c r="K11" s="33">
-        <v>73.22</v>
+        <v>560.63</v>
       </c>
       <c r="L11" s="33">
-        <v>327.37</v>
+        <v>102.45</v>
       </c>
       <c r="M11" s="33">
-        <v>560.63</v>
+        <v>583.66</v>
       </c>
       <c r="N11" s="33">
-        <v>102.45</v>
+        <v>604.38</v>
       </c>
       <c r="O11" s="33">
-        <v>583.66</v>
-      </c>
-      <c r="P11" s="33">
-        <v>604.38</v>
+        <v>10272.77</v>
+      </c>
+      <c r="P11" s="35">
+        <v>497555</v>
       </c>
       <c r="Q11" s="33">
-        <v>10272.77</v>
-      </c>
-      <c r="R11" s="35">
-        <v>497555</v>
-      </c>
-      <c r="S11" s="33">
         <v>24.96</v>
       </c>
     </row>
@@ -1593,7 +1527,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="J14" sqref="A1:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
